--- a/2021-zjsk-shaoxin-keqiao-jmmd.xlsx
+++ b/2021-zjsk-shaoxin-keqiao-jmmd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\gwy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zqh\Desktop\1\公务员备考\2022\浙江省考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB8B940-7E13-4B4D-B07D-524A4DC27DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5837065B-A743-406E-BEE1-D64BC674C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,7 +1595,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -64960,7 +64960,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
